--- a/reports/Test Run/report_20250714T084049Z.xlsx
+++ b/reports/Test Run/report_20250714T084049Z.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabe\Documents\Insidious\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabe\Documents\Insidious\reports\Test Run\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4046624A-0016-47D3-B6B1-3DC026D972FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19072C0-106E-4FF9-BE6E-15E363054AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,7 +175,7 @@
     <t>CloudTrail_Escalate_T1548.003</t>
   </si>
   <si>
-    <t>192.0.2.10</t>
+    <t>104.28.226.107</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
